--- a/atomica/library/tb_progbook_defaults.xlsx
+++ b/atomica/library/tb_progbook_defaults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF9CC7F-1BDB-44F4-8719-E32F1425A69B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C51792-1229-4952-A10B-805A702255AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/atomica/library/tb_progbook_defaults.xlsx
+++ b/atomica/library/tb_progbook_defaults.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C51792-1229-4952-A10B-805A702255AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003DA86-C7B3-4B9C-819F-F663AE765C69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -385,9 +386,6 @@
     <t>$/person (one-off)</t>
   </si>
   <si>
-    <t>Capacity</t>
-  </si>
-  <si>
     <t>people/year</t>
   </si>
   <si>
@@ -539,6 +537,9 @@
   </si>
   <si>
     <t>XDR treatment proportion of deaths</t>
+  </si>
+  <si>
+    <t>Capacity constraint</t>
   </si>
 </sst>
 </file>
@@ -916,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4798,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4859,10 +4860,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>115</v>
@@ -4870,10 +4871,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>115</v>
@@ -4881,10 +4882,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
         <v>115</v>
@@ -4938,10 +4939,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>115</v>
@@ -4949,10 +4950,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>115</v>
@@ -4960,10 +4961,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>115</v>
@@ -5017,10 +5018,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
@@ -5028,10 +5029,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>115</v>
@@ -5039,10 +5040,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>115</v>
@@ -5096,10 +5097,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
@@ -5107,10 +5108,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
       </c>
       <c r="E26" t="s">
         <v>115</v>
@@ -5118,10 +5119,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>115</v>
@@ -5175,10 +5176,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
         <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>115</v>
@@ -5186,10 +5187,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
         <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
       </c>
       <c r="E33" t="s">
         <v>115</v>
@@ -5197,10 +5198,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -5254,10 +5255,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
         <v>118</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -5265,10 +5266,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
         <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>115</v>
@@ -5276,10 +5277,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
         <v>115</v>
@@ -5333,10 +5334,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
         <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
       </c>
       <c r="E46" t="s">
         <v>115</v>
@@ -5344,10 +5345,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>115</v>
@@ -5355,10 +5356,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
         <v>115</v>
@@ -5412,10 +5413,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
         <v>118</v>
-      </c>
-      <c r="B53" t="s">
-        <v>119</v>
       </c>
       <c r="E53" t="s">
         <v>115</v>
@@ -5423,10 +5424,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
       </c>
       <c r="E54" t="s">
         <v>115</v>
@@ -5434,10 +5435,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
         <v>115</v>
@@ -5491,10 +5492,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>115</v>
@@ -5502,10 +5503,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
       <c r="E61" t="s">
         <v>115</v>
@@ -5513,10 +5514,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
         <v>115</v>
@@ -5570,10 +5571,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
         <v>118</v>
-      </c>
-      <c r="B67" t="s">
-        <v>119</v>
       </c>
       <c r="E67" t="s">
         <v>115</v>
@@ -5581,10 +5582,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
         <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
       </c>
       <c r="E68" t="s">
         <v>115</v>
@@ -5592,10 +5593,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
         <v>115</v>
@@ -5649,10 +5650,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
         <v>118</v>
-      </c>
-      <c r="B74" t="s">
-        <v>119</v>
       </c>
       <c r="E74" t="s">
         <v>115</v>
@@ -5660,10 +5661,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
         <v>120</v>
-      </c>
-      <c r="B75" t="s">
-        <v>121</v>
       </c>
       <c r="E75" t="s">
         <v>115</v>
@@ -5671,10 +5672,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
         <v>115</v>
@@ -5728,10 +5729,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s">
         <v>118</v>
-      </c>
-      <c r="B81" t="s">
-        <v>119</v>
       </c>
       <c r="E81" t="s">
         <v>115</v>
@@ -5739,10 +5740,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
         <v>120</v>
-      </c>
-      <c r="B82" t="s">
-        <v>121</v>
       </c>
       <c r="E82" t="s">
         <v>115</v>
@@ -5750,10 +5751,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
         <v>115</v>
@@ -5807,10 +5808,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
         <v>118</v>
-      </c>
-      <c r="B88" t="s">
-        <v>119</v>
       </c>
       <c r="E88" t="s">
         <v>115</v>
@@ -5818,10 +5819,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" t="s">
         <v>120</v>
-      </c>
-      <c r="B89" t="s">
-        <v>121</v>
       </c>
       <c r="E89" t="s">
         <v>115</v>
@@ -5829,10 +5830,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
         <v>115</v>
@@ -5886,10 +5887,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
         <v>118</v>
-      </c>
-      <c r="B95" t="s">
-        <v>119</v>
       </c>
       <c r="E95" t="s">
         <v>115</v>
@@ -5897,10 +5898,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
         <v>120</v>
-      </c>
-      <c r="B96" t="s">
-        <v>121</v>
       </c>
       <c r="E96" t="s">
         <v>115</v>
@@ -5908,10 +5909,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
         <v>115</v>
@@ -5965,10 +5966,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" t="s">
         <v>118</v>
-      </c>
-      <c r="B102" t="s">
-        <v>119</v>
       </c>
       <c r="E102" t="s">
         <v>115</v>
@@ -5976,10 +5977,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
         <v>120</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
       </c>
       <c r="E103" t="s">
         <v>115</v>
@@ -5987,10 +5988,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" t="s">
         <v>115</v>
@@ -6044,10 +6045,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
         <v>118</v>
-      </c>
-      <c r="B109" t="s">
-        <v>119</v>
       </c>
       <c r="E109" t="s">
         <v>115</v>
@@ -6055,10 +6056,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
         <v>120</v>
-      </c>
-      <c r="B110" t="s">
-        <v>121</v>
       </c>
       <c r="E110" t="s">
         <v>115</v>
@@ -6066,10 +6067,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E111" t="s">
         <v>115</v>
@@ -6123,10 +6124,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" t="s">
         <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>119</v>
       </c>
       <c r="E116" t="s">
         <v>115</v>
@@ -6134,10 +6135,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
         <v>120</v>
-      </c>
-      <c r="B117" t="s">
-        <v>121</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
@@ -6145,10 +6146,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E118" t="s">
         <v>115</v>
@@ -6202,10 +6203,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" t="s">
         <v>118</v>
-      </c>
-      <c r="B123" t="s">
-        <v>119</v>
       </c>
       <c r="E123" t="s">
         <v>115</v>
@@ -6213,10 +6214,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
         <v>120</v>
-      </c>
-      <c r="B124" t="s">
-        <v>121</v>
       </c>
       <c r="E124" t="s">
         <v>115</v>
@@ -6224,10 +6225,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E125" t="s">
         <v>115</v>
@@ -6281,10 +6282,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" t="s">
         <v>118</v>
-      </c>
-      <c r="B130" t="s">
-        <v>119</v>
       </c>
       <c r="E130" t="s">
         <v>115</v>
@@ -6292,10 +6293,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>119</v>
+      </c>
+      <c r="B131" t="s">
         <v>120</v>
-      </c>
-      <c r="B131" t="s">
-        <v>121</v>
       </c>
       <c r="E131" t="s">
         <v>115</v>
@@ -6303,10 +6304,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E132" t="s">
         <v>115</v>
@@ -6360,10 +6361,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" t="s">
         <v>118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>119</v>
       </c>
       <c r="E137" t="s">
         <v>115</v>
@@ -6371,10 +6372,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
         <v>120</v>
-      </c>
-      <c r="B138" t="s">
-        <v>121</v>
       </c>
       <c r="E138" t="s">
         <v>115</v>
@@ -6382,10 +6383,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E139" t="s">
         <v>115</v>
@@ -6439,10 +6440,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" t="s">
         <v>118</v>
-      </c>
-      <c r="B144" t="s">
-        <v>119</v>
       </c>
       <c r="E144" t="s">
         <v>115</v>
@@ -6450,10 +6451,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" t="s">
         <v>120</v>
-      </c>
-      <c r="B145" t="s">
-        <v>121</v>
       </c>
       <c r="E145" t="s">
         <v>115</v>
@@ -6461,10 +6462,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E146" t="s">
         <v>115</v>
@@ -6518,10 +6519,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" t="s">
         <v>118</v>
-      </c>
-      <c r="B151" t="s">
-        <v>119</v>
       </c>
       <c r="E151" t="s">
         <v>115</v>
@@ -6529,10 +6530,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" t="s">
         <v>120</v>
-      </c>
-      <c r="B152" t="s">
-        <v>121</v>
       </c>
       <c r="E152" t="s">
         <v>115</v>
@@ -6540,10 +6541,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E153" t="s">
         <v>115</v>
@@ -6597,10 +6598,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" t="s">
         <v>118</v>
-      </c>
-      <c r="B158" t="s">
-        <v>119</v>
       </c>
       <c r="E158" t="s">
         <v>115</v>
@@ -6608,10 +6609,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" t="s">
         <v>120</v>
-      </c>
-      <c r="B159" t="s">
-        <v>121</v>
       </c>
       <c r="E159" t="s">
         <v>115</v>
@@ -6619,10 +6620,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E160" t="s">
         <v>115</v>
@@ -6676,10 +6677,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
         <v>118</v>
-      </c>
-      <c r="B165" t="s">
-        <v>119</v>
       </c>
       <c r="E165" t="s">
         <v>115</v>
@@ -6687,10 +6688,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" t="s">
         <v>120</v>
-      </c>
-      <c r="B166" t="s">
-        <v>121</v>
       </c>
       <c r="E166" t="s">
         <v>115</v>
@@ -6698,10 +6699,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E167" t="s">
         <v>115</v>
@@ -6755,10 +6756,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
         <v>118</v>
-      </c>
-      <c r="B172" t="s">
-        <v>119</v>
       </c>
       <c r="E172" t="s">
         <v>115</v>
@@ -6766,10 +6767,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
         <v>120</v>
-      </c>
-      <c r="B173" t="s">
-        <v>121</v>
       </c>
       <c r="E173" t="s">
         <v>115</v>
@@ -6777,10 +6778,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E174" t="s">
         <v>115</v>
@@ -6834,10 +6835,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" t="s">
         <v>118</v>
-      </c>
-      <c r="B179" t="s">
-        <v>119</v>
       </c>
       <c r="E179" t="s">
         <v>115</v>
@@ -6845,10 +6846,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" t="s">
         <v>120</v>
-      </c>
-      <c r="B180" t="s">
-        <v>121</v>
       </c>
       <c r="E180" t="s">
         <v>115</v>
@@ -6856,10 +6857,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E181" t="s">
         <v>115</v>
@@ -6913,10 +6914,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" t="s">
         <v>118</v>
-      </c>
-      <c r="B186" t="s">
-        <v>119</v>
       </c>
       <c r="E186" t="s">
         <v>115</v>
@@ -6924,10 +6925,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187" t="s">
         <v>120</v>
-      </c>
-      <c r="B187" t="s">
-        <v>121</v>
       </c>
       <c r="E187" t="s">
         <v>115</v>
@@ -6935,10 +6936,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B188" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E188" t="s">
         <v>115</v>
@@ -6992,10 +6993,10 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" t="s">
         <v>118</v>
-      </c>
-      <c r="B193" t="s">
-        <v>119</v>
       </c>
       <c r="E193" t="s">
         <v>115</v>
@@ -7003,10 +7004,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" t="s">
         <v>120</v>
-      </c>
-      <c r="B194" t="s">
-        <v>121</v>
       </c>
       <c r="E194" t="s">
         <v>115</v>
@@ -7014,10 +7015,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B195" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E195" t="s">
         <v>115</v>
@@ -7071,10 +7072,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" t="s">
         <v>118</v>
-      </c>
-      <c r="B200" t="s">
-        <v>119</v>
       </c>
       <c r="E200" t="s">
         <v>115</v>
@@ -7082,10 +7083,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>119</v>
+      </c>
+      <c r="B201" t="s">
         <v>120</v>
-      </c>
-      <c r="B201" t="s">
-        <v>121</v>
       </c>
       <c r="E201" t="s">
         <v>115</v>
@@ -7093,10 +7094,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B202" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E202" t="s">
         <v>115</v>
@@ -7150,10 +7151,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" t="s">
         <v>118</v>
-      </c>
-      <c r="B207" t="s">
-        <v>119</v>
       </c>
       <c r="E207" t="s">
         <v>115</v>
@@ -7161,10 +7162,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>119</v>
+      </c>
+      <c r="B208" t="s">
         <v>120</v>
-      </c>
-      <c r="B208" t="s">
-        <v>121</v>
       </c>
       <c r="E208" t="s">
         <v>115</v>
@@ -7172,10 +7173,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B209" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E209" t="s">
         <v>115</v>
@@ -7229,10 +7230,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" t="s">
         <v>118</v>
-      </c>
-      <c r="B214" t="s">
-        <v>119</v>
       </c>
       <c r="E214" t="s">
         <v>115</v>
@@ -7240,10 +7241,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>119</v>
+      </c>
+      <c r="B215" t="s">
         <v>120</v>
-      </c>
-      <c r="B215" t="s">
-        <v>121</v>
       </c>
       <c r="E215" t="s">
         <v>115</v>
@@ -7251,10 +7252,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E216" t="s">
         <v>115</v>
@@ -7308,10 +7309,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>169</v>
+      </c>
+      <c r="B221" t="s">
         <v>118</v>
-      </c>
-      <c r="B221" t="s">
-        <v>119</v>
       </c>
       <c r="E221" t="s">
         <v>115</v>
@@ -7319,10 +7320,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>119</v>
+      </c>
+      <c r="B222" t="s">
         <v>120</v>
-      </c>
-      <c r="B222" t="s">
-        <v>121</v>
       </c>
       <c r="E222" t="s">
         <v>115</v>
@@ -7330,10 +7331,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B223" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E223" t="s">
         <v>115</v>
@@ -7387,10 +7388,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>169</v>
+      </c>
+      <c r="B228" t="s">
         <v>118</v>
-      </c>
-      <c r="B228" t="s">
-        <v>119</v>
       </c>
       <c r="E228" t="s">
         <v>115</v>
@@ -7398,10 +7399,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>119</v>
+      </c>
+      <c r="B229" t="s">
         <v>120</v>
-      </c>
-      <c r="B229" t="s">
-        <v>121</v>
       </c>
       <c r="E229" t="s">
         <v>115</v>
@@ -7409,10 +7410,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B230" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E230" t="s">
         <v>115</v>
@@ -7466,10 +7467,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>169</v>
+      </c>
+      <c r="B235" t="s">
         <v>118</v>
-      </c>
-      <c r="B235" t="s">
-        <v>119</v>
       </c>
       <c r="E235" t="s">
         <v>115</v>
@@ -7477,10 +7478,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>119</v>
+      </c>
+      <c r="B236" t="s">
         <v>120</v>
-      </c>
-      <c r="B236" t="s">
-        <v>121</v>
       </c>
       <c r="E236" t="s">
         <v>115</v>
@@ -7488,10 +7489,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B237" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E237" t="s">
         <v>115</v>
@@ -7545,10 +7546,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>169</v>
+      </c>
+      <c r="B242" t="s">
         <v>118</v>
-      </c>
-      <c r="B242" t="s">
-        <v>119</v>
       </c>
       <c r="E242" t="s">
         <v>115</v>
@@ -7556,10 +7557,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>119</v>
+      </c>
+      <c r="B243" t="s">
         <v>120</v>
-      </c>
-      <c r="B243" t="s">
-        <v>121</v>
       </c>
       <c r="E243" t="s">
         <v>115</v>
@@ -7567,10 +7568,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B244" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E244" t="s">
         <v>115</v>
@@ -7624,10 +7625,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" t="s">
         <v>118</v>
-      </c>
-      <c r="B249" t="s">
-        <v>119</v>
       </c>
       <c r="E249" t="s">
         <v>115</v>
@@ -7635,10 +7636,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>119</v>
+      </c>
+      <c r="B250" t="s">
         <v>120</v>
-      </c>
-      <c r="B250" t="s">
-        <v>121</v>
       </c>
       <c r="E250" t="s">
         <v>115</v>
@@ -7646,10 +7647,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B251" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E251" t="s">
         <v>115</v>
@@ -7713,16 +7714,16 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -7881,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7896,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -7908,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -7920,21 +7921,21 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
       </c>
       <c r="E7" t="s">
         <v>111</v>
@@ -8093,7 +8094,7 @@
         <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -8105,7 +8106,7 @@
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -8117,7 +8118,7 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -8129,21 +8130,21 @@
         <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
         <v>124</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>111</v>
@@ -8302,7 +8303,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
@@ -8314,7 +8315,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -8326,7 +8327,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -8338,21 +8339,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
       </c>
       <c r="E19" t="s">
         <v>111</v>
@@ -8511,7 +8512,7 @@
         <v>0.93</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
@@ -8523,7 +8524,7 @@
         <v>0.93</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
@@ -8535,7 +8536,7 @@
         <v>0.93</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
@@ -8547,21 +8548,21 @@
         <v>0.93</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>111</v>
@@ -8720,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -8732,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -8744,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -8756,21 +8757,21 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
       </c>
       <c r="E31" t="s">
         <v>111</v>
@@ -8929,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -8941,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
@@ -8953,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -8965,21 +8966,21 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
       </c>
       <c r="E37" t="s">
         <v>111</v>
@@ -9138,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -9150,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -9162,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
@@ -9174,21 +9175,21 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
       </c>
       <c r="E43" t="s">
         <v>111</v>
@@ -9344,7 +9345,7 @@
         <v>^0.*</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
@@ -9356,7 +9357,7 @@
         <v>0.99</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45">
         <v>0.2</v>
@@ -9368,7 +9369,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
@@ -9377,21 +9378,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>125</v>
-      </c>
-      <c r="D49" t="s">
-        <v>126</v>
       </c>
       <c r="E49" t="s">
         <v>111</v>
@@ -9547,7 +9548,7 @@
         <v>^0.*</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
@@ -9559,7 +9560,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H51">
         <v>3.0000000000000001E-3</v>
@@ -9571,7 +9572,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
@@ -9580,21 +9581,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
       </c>
       <c r="E55" t="s">
         <v>111</v>
@@ -9750,7 +9751,7 @@
         <v>^0.*</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
@@ -9762,7 +9763,7 @@
         <v>0.93</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H57">
         <v>0.17699999999999999</v>
@@ -9774,7 +9775,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
@@ -9783,21 +9784,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>126</v>
       </c>
       <c r="E61" t="s">
         <v>111</v>
@@ -9953,7 +9954,7 @@
         <v>^0.*</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
@@ -9962,7 +9963,7 @@
         <v>.*HIV.*</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
@@ -9971,7 +9972,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
@@ -9980,21 +9981,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
         <v>124</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
       </c>
       <c r="E67" t="s">
         <v>111</v>
@@ -10150,7 +10151,7 @@
         <v>^0.*</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
@@ -10159,7 +10160,7 @@
         <v>.*HIV.*</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
@@ -10168,7 +10169,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
@@ -10177,21 +10178,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
         <v>124</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>125</v>
-      </c>
-      <c r="D73" t="s">
-        <v>126</v>
       </c>
       <c r="E73" t="s">
         <v>111</v>
@@ -10347,7 +10348,7 @@
         <v>^0.*</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
@@ -10356,7 +10357,7 @@
         <v>.*HIV.*</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
@@ -10365,7 +10366,7 @@
         <v>.*[pP]rison.*</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
@@ -10374,21 +10375,21 @@
         <v>^[^0](?!HIV)(?![pP]rison).*</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
         <v>124</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>125</v>
-      </c>
-      <c r="D79" t="s">
-        <v>126</v>
       </c>
       <c r="E79" t="s">
         <v>111</v>
@@ -10547,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K80">
         <v>0.87</v>
@@ -10583,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K81">
         <v>0.87</v>
@@ -10619,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K82">
         <v>0.87</v>
@@ -10646,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K83">
         <v>0.87</v>
@@ -10675,16 +10676,16 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
         <v>124</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>125</v>
-      </c>
-      <c r="D85" t="s">
-        <v>126</v>
       </c>
       <c r="E85" t="s">
         <v>111</v>
@@ -10843,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -10879,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -10915,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -10942,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -10971,16 +10972,16 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
         <v>124</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>125</v>
-      </c>
-      <c r="D91" t="s">
-        <v>126</v>
       </c>
       <c r="E91" t="s">
         <v>111</v>
@@ -11139,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -11175,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -11211,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -11238,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -11267,16 +11268,16 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" t="s">
         <v>124</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>125</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
       </c>
       <c r="E97" t="s">
         <v>111</v>
@@ -11435,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M98">
         <v>0.87</v>
@@ -11465,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M99">
         <v>0.87</v>
@@ -11495,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M100">
         <v>0.87</v>
@@ -11519,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M101">
         <v>0.87</v>
@@ -11542,16 +11543,16 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" t="s">
         <v>124</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>125</v>
-      </c>
-      <c r="D103" t="s">
-        <v>126</v>
       </c>
       <c r="E103" t="s">
         <v>111</v>
@@ -11710,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M104">
         <v>0.5</v>
@@ -11740,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M105">
         <v>0.5</v>
@@ -11770,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M106">
         <v>0.5</v>
@@ -11794,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M107">
         <v>0.5</v>
@@ -11817,16 +11818,16 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
         <v>124</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>125</v>
-      </c>
-      <c r="D109" t="s">
-        <v>126</v>
       </c>
       <c r="E109" t="s">
         <v>111</v>
@@ -11985,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -12015,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -12045,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -12069,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -12092,16 +12093,16 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>126</v>
       </c>
       <c r="E115" t="s">
         <v>111</v>
@@ -12260,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U116">
         <v>1</v>
@@ -12278,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -12296,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W118">
         <v>1</v>
@@ -12311,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U119">
         <v>1</v>
@@ -12322,16 +12323,16 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
         <v>124</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>125</v>
-      </c>
-      <c r="D121" t="s">
-        <v>126</v>
       </c>
       <c r="E121" t="s">
         <v>111</v>
@@ -12490,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U122">
         <v>1</v>
@@ -12508,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -12526,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W124">
         <v>1</v>
@@ -12541,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U125">
         <v>1</v>
@@ -12552,16 +12553,16 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
         <v>124</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>125</v>
-      </c>
-      <c r="D127" t="s">
-        <v>126</v>
       </c>
       <c r="E127" t="s">
         <v>111</v>
@@ -12720,7 +12721,7 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U128">
         <v>180</v>
@@ -12738,7 +12739,7 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U129">
         <v>180</v>
@@ -12756,7 +12757,7 @@
         <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W130">
         <v>180</v>
@@ -12771,7 +12772,7 @@
         <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U131">
         <v>180</v>
@@ -12782,16 +12783,16 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" t="s">
         <v>124</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>125</v>
-      </c>
-      <c r="D133" t="s">
-        <v>126</v>
       </c>
       <c r="E133" t="s">
         <v>111</v>
@@ -12950,7 +12951,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U134">
         <v>7.0000000000000007E-2</v>
@@ -12968,7 +12969,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U135">
         <v>7.0000000000000007E-2</v>
@@ -12986,7 +12987,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W136">
         <v>7.0000000000000007E-2</v>
@@ -13001,7 +13002,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U137">
         <v>7.0000000000000007E-2</v>
@@ -13012,16 +13013,16 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" t="s">
         <v>124</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>125</v>
-      </c>
-      <c r="D139" t="s">
-        <v>126</v>
       </c>
       <c r="E139" t="s">
         <v>111</v>
@@ -13180,7 +13181,7 @@
         <v>0.02</v>
       </c>
       <c r="C140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U140">
         <v>0.02</v>
@@ -13198,7 +13199,7 @@
         <v>0.02</v>
       </c>
       <c r="C141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U141">
         <v>0.02</v>
@@ -13216,7 +13217,7 @@
         <v>0.02</v>
       </c>
       <c r="C142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W142">
         <v>0.02</v>
@@ -13231,7 +13232,7 @@
         <v>0.02</v>
       </c>
       <c r="C143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U143">
         <v>0.02</v>
@@ -13242,16 +13243,16 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" t="s">
         <v>124</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>125</v>
-      </c>
-      <c r="D145" t="s">
-        <v>126</v>
       </c>
       <c r="E145" t="s">
         <v>111</v>
@@ -13410,7 +13411,7 @@
         <v>0.02</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U146">
         <v>0.02</v>
@@ -13428,7 +13429,7 @@
         <v>0.02</v>
       </c>
       <c r="C147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U147">
         <v>0.02</v>
@@ -13446,7 +13447,7 @@
         <v>0.02</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W148">
         <v>0.02</v>
@@ -13461,7 +13462,7 @@
         <v>0.02</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U149">
         <v>0.02</v>
@@ -13472,16 +13473,16 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
+        <v>123</v>
+      </c>
+      <c r="C151" t="s">
         <v>124</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>125</v>
-      </c>
-      <c r="D151" t="s">
-        <v>126</v>
       </c>
       <c r="E151" t="s">
         <v>111</v>
@@ -13640,7 +13641,7 @@
         <v>0.83</v>
       </c>
       <c r="C152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U152">
         <v>0.83</v>
@@ -13658,7 +13659,7 @@
         <v>0.83</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U153">
         <v>0.83</v>
@@ -13676,7 +13677,7 @@
         <v>0.83</v>
       </c>
       <c r="C154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W154">
         <v>0.83</v>
@@ -13691,7 +13692,7 @@
         <v>0.83</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U155">
         <v>0.83</v>
@@ -13702,16 +13703,16 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" t="s">
         <v>124</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>125</v>
-      </c>
-      <c r="D157" t="s">
-        <v>126</v>
       </c>
       <c r="E157" t="s">
         <v>111</v>
@@ -13870,7 +13871,7 @@
         <v>0.06</v>
       </c>
       <c r="C158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U158">
         <v>0.06</v>
@@ -13888,7 +13889,7 @@
         <v>0.06</v>
       </c>
       <c r="C159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U159">
         <v>0.06</v>
@@ -13906,7 +13907,7 @@
         <v>0.06</v>
       </c>
       <c r="C160" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W160">
         <v>0.06</v>
@@ -13921,7 +13922,7 @@
         <v>0.06</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U161">
         <v>0.06</v>
@@ -13932,16 +13933,16 @@
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B163" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" t="s">
         <v>124</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>125</v>
-      </c>
-      <c r="D163" t="s">
-        <v>126</v>
       </c>
       <c r="E163" t="s">
         <v>111</v>
@@ -14100,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X164">
         <v>1</v>
@@ -14127,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X165">
         <v>1</v>
@@ -14154,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF166">
         <v>1</v>
@@ -14169,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X167">
         <v>1</v>
@@ -14189,16 +14190,16 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B169" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169" t="s">
         <v>124</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>125</v>
-      </c>
-      <c r="D169" t="s">
-        <v>126</v>
       </c>
       <c r="E169" t="s">
         <v>111</v>
@@ -14357,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X170">
         <v>1</v>
@@ -14384,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X171">
         <v>1</v>
@@ -14411,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF172">
         <v>1</v>
@@ -14426,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X173">
         <v>1</v>
@@ -14446,16 +14447,16 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" t="s">
         <v>124</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>125</v>
-      </c>
-      <c r="D175" t="s">
-        <v>126</v>
       </c>
       <c r="E175" t="s">
         <v>111</v>
@@ -14614,7 +14615,7 @@
         <v>600</v>
       </c>
       <c r="C176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X176">
         <v>600</v>
@@ -14641,7 +14642,7 @@
         <v>600</v>
       </c>
       <c r="C177" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X177">
         <v>600</v>
@@ -14668,7 +14669,7 @@
         <v>600</v>
       </c>
       <c r="C178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF178">
         <v>600</v>
@@ -14683,7 +14684,7 @@
         <v>600</v>
       </c>
       <c r="C179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X179">
         <v>600</v>
@@ -14703,16 +14704,16 @@
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B181" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" t="s">
         <v>124</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>125</v>
-      </c>
-      <c r="D181" t="s">
-        <v>126</v>
       </c>
       <c r="E181" t="s">
         <v>111</v>
@@ -14871,7 +14872,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="C182" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X182">
         <v>0.14699999999999999</v>
@@ -14898,7 +14899,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="C183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X183">
         <v>0.14699999999999999</v>
@@ -14925,7 +14926,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF184">
         <v>0.2</v>
@@ -14940,7 +14941,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="C185" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X185">
         <v>0.14699999999999999</v>
@@ -14960,16 +14961,16 @@
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B187" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" t="s">
         <v>124</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>125</v>
-      </c>
-      <c r="D187" t="s">
-        <v>126</v>
       </c>
       <c r="E187" t="s">
         <v>111</v>
@@ -15128,7 +15129,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X188">
         <v>7.0000000000000007E-2</v>
@@ -15155,7 +15156,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C189" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X189">
         <v>7.0000000000000007E-2</v>
@@ -15182,7 +15183,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF190">
         <v>0.12</v>
@@ -15197,7 +15198,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C191" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X191">
         <v>7.0000000000000007E-2</v>
@@ -15217,16 +15218,16 @@
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B193" t="s">
+        <v>123</v>
+      </c>
+      <c r="C193" t="s">
         <v>124</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>125</v>
-      </c>
-      <c r="D193" t="s">
-        <v>126</v>
       </c>
       <c r="E193" t="s">
         <v>111</v>
@@ -15385,7 +15386,7 @@
         <v>0.02</v>
       </c>
       <c r="C194" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X194">
         <v>0.02</v>
@@ -15412,7 +15413,7 @@
         <v>0.02</v>
       </c>
       <c r="C195" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X195">
         <v>0.02</v>
@@ -15439,7 +15440,7 @@
         <v>0.02</v>
       </c>
       <c r="C196" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF196">
         <v>0.02</v>
@@ -15454,7 +15455,7 @@
         <v>0.02</v>
       </c>
       <c r="C197" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X197">
         <v>0.02</v>
@@ -15474,16 +15475,16 @@
     </row>
     <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B199" t="s">
+        <v>123</v>
+      </c>
+      <c r="C199" t="s">
         <v>124</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>125</v>
-      </c>
-      <c r="D199" t="s">
-        <v>126</v>
       </c>
       <c r="E199" t="s">
         <v>111</v>
@@ -15642,7 +15643,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="C200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X200">
         <v>0.63400000000000001</v>
@@ -15669,7 +15670,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="C201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X201">
         <v>0.63400000000000001</v>
@@ -15696,7 +15697,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="C202" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF202">
         <v>0.5</v>
@@ -15711,7 +15712,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="C203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X203">
         <v>0.63400000000000001</v>
@@ -15731,16 +15732,16 @@
     </row>
     <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B205" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" t="s">
         <v>124</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>125</v>
-      </c>
-      <c r="D205" t="s">
-        <v>126</v>
       </c>
       <c r="E205" t="s">
         <v>111</v>
@@ -15899,7 +15900,7 @@
         <v>0.129</v>
       </c>
       <c r="C206" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X206">
         <v>0.129</v>
@@ -15926,7 +15927,7 @@
         <v>0.129</v>
       </c>
       <c r="C207" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X207">
         <v>0.129</v>
@@ -15953,7 +15954,7 @@
         <v>0.129</v>
       </c>
       <c r="C208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF208">
         <v>0.16</v>
@@ -15968,7 +15969,7 @@
         <v>0.129</v>
       </c>
       <c r="C209" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X209">
         <v>0.129</v>
@@ -15988,16 +15989,16 @@
     </row>
     <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B211" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" t="s">
         <v>124</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>125</v>
-      </c>
-      <c r="D211" t="s">
-        <v>126</v>
       </c>
       <c r="E211" t="s">
         <v>111</v>
@@ -16156,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC212">
         <v>1</v>
@@ -16177,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC213">
         <v>1</v>
@@ -16198,7 +16199,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF214">
         <v>1</v>
@@ -16213,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC215">
         <v>1</v>
@@ -16227,16 +16228,16 @@
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B217" t="s">
+        <v>123</v>
+      </c>
+      <c r="C217" t="s">
         <v>124</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>125</v>
-      </c>
-      <c r="D217" t="s">
-        <v>126</v>
       </c>
       <c r="E217" t="s">
         <v>111</v>
@@ -16395,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC218">
         <v>1</v>
@@ -16416,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC219">
         <v>1</v>
@@ -16437,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF220">
         <v>1</v>
@@ -16452,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC221">
         <v>1</v>
@@ -16466,16 +16467,16 @@
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B223" t="s">
+        <v>123</v>
+      </c>
+      <c r="C223" t="s">
         <v>124</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>125</v>
-      </c>
-      <c r="D223" t="s">
-        <v>126</v>
       </c>
       <c r="E223" t="s">
         <v>111</v>
@@ -16634,7 +16635,7 @@
         <v>600</v>
       </c>
       <c r="C224" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC224">
         <v>600</v>
@@ -16655,7 +16656,7 @@
         <v>600</v>
       </c>
       <c r="C225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC225">
         <v>600</v>
@@ -16676,7 +16677,7 @@
         <v>600</v>
       </c>
       <c r="C226" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.25">
@@ -16688,7 +16689,7 @@
         <v>600</v>
       </c>
       <c r="C227" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC227">
         <v>600</v>
@@ -16702,16 +16703,16 @@
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C229" t="s">
         <v>124</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>125</v>
-      </c>
-      <c r="D229" t="s">
-        <v>126</v>
       </c>
       <c r="E229" t="s">
         <v>111</v>
@@ -16870,7 +16871,7 @@
         <v>0.21</v>
       </c>
       <c r="C230" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC230">
         <v>0.21</v>
@@ -16891,7 +16892,7 @@
         <v>0.21</v>
       </c>
       <c r="C231" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC231">
         <v>0.21</v>
@@ -16912,7 +16913,7 @@
         <v>0.21</v>
       </c>
       <c r="C232" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF232">
         <v>0.2</v>
@@ -16927,7 +16928,7 @@
         <v>0.21</v>
       </c>
       <c r="C233" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC233">
         <v>0.21</v>
@@ -16941,16 +16942,16 @@
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B235" t="s">
+        <v>123</v>
+      </c>
+      <c r="C235" t="s">
         <v>124</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>125</v>
-      </c>
-      <c r="D235" t="s">
-        <v>126</v>
       </c>
       <c r="E235" t="s">
         <v>111</v>
@@ -17109,7 +17110,7 @@
         <v>0.21</v>
       </c>
       <c r="C236" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC236">
         <v>0.21</v>
@@ -17130,7 +17131,7 @@
         <v>0.21</v>
       </c>
       <c r="C237" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC237">
         <v>0.21</v>
@@ -17151,7 +17152,7 @@
         <v>0.21</v>
       </c>
       <c r="C238" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF238">
         <v>0.21</v>
@@ -17166,7 +17167,7 @@
         <v>0.21</v>
       </c>
       <c r="C239" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC239">
         <v>0.21</v>
@@ -17180,16 +17181,16 @@
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="s">
         <v>124</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>125</v>
-      </c>
-      <c r="D241" t="s">
-        <v>126</v>
       </c>
       <c r="E241" t="s">
         <v>111</v>
@@ -17348,7 +17349,7 @@
         <v>0.3</v>
       </c>
       <c r="C242" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC242">
         <v>0.3</v>
@@ -17369,7 +17370,7 @@
         <v>0.3</v>
       </c>
       <c r="C243" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC243">
         <v>0.3</v>
@@ -17390,7 +17391,7 @@
         <v>0.3</v>
       </c>
       <c r="C244" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF244">
         <v>0.3</v>
@@ -17405,7 +17406,7 @@
         <v>0.3</v>
       </c>
       <c r="C245" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC245">
         <v>0.3</v>
@@ -17419,16 +17420,16 @@
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B247" t="s">
+        <v>123</v>
+      </c>
+      <c r="C247" t="s">
         <v>124</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>125</v>
-      </c>
-      <c r="D247" t="s">
-        <v>126</v>
       </c>
       <c r="E247" t="s">
         <v>111</v>
@@ -17587,7 +17588,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C248" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC248">
         <v>0.28000000000000003</v>
@@ -17608,7 +17609,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C249" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC249">
         <v>0.28000000000000003</v>
@@ -17629,7 +17630,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C250" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF250">
         <v>0.28000000000000003</v>
@@ -17644,7 +17645,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C251" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC251">
         <v>0.28000000000000003</v>
